--- a/data/trans_orig/P58-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P58-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16436</v>
+        <v>16392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41088</v>
+        <v>40459</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09891730764110813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06020465982228414</v>
+        <v>0.06004253277990347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1504982727266191</v>
+        <v>0.1481972184051949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>25130</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14832</v>
+        <v>15183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40655</v>
+        <v>39238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09634511268545318</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05686443008259617</v>
+        <v>0.05820999534576423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1558639958021112</v>
+        <v>0.1504323632945556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -786,19 +786,19 @@
         <v>52136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37827</v>
+        <v>35101</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70142</v>
+        <v>69090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09766053382829817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07085721344966407</v>
+        <v>0.06575094665771541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1313889005994127</v>
+        <v>0.1294183705539214</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>25931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15613</v>
+        <v>14775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39661</v>
+        <v>39787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09498023935557334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05718922660361715</v>
+        <v>0.05411923654691302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1452722402848773</v>
+        <v>0.1457333508321728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -836,19 +836,19 @@
         <v>17500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10225</v>
+        <v>9371</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28244</v>
+        <v>27293</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06709060906194043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03920025686018482</v>
+        <v>0.03592606655023752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1082832839823949</v>
+        <v>0.1046342669002518</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -857,19 +857,19 @@
         <v>43430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28978</v>
+        <v>30635</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59159</v>
+        <v>59060</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08135337296081188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05428138307808796</v>
+        <v>0.05738542738820507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1108170536843825</v>
+        <v>0.1106300324335834</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>220074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>203363</v>
+        <v>203676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234330</v>
+        <v>234598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8061024530033185</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7448925016678239</v>
+        <v>0.74603944558303</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8583186850508477</v>
+        <v>0.8593002418584161</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>212</v>
@@ -907,19 +907,19 @@
         <v>218208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>202803</v>
+        <v>203216</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>230931</v>
+        <v>230471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8365642782526064</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7775051702657471</v>
+        <v>0.7790896845811606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8853421667583694</v>
+        <v>0.8835789481863281</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>449</v>
@@ -928,19 +928,19 @@
         <v>438282</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>415782</v>
+        <v>417577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>456376</v>
+        <v>460215</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.82098609321089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7788394601587867</v>
+        <v>0.7822026520775908</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8548792477115001</v>
+        <v>0.8620719684427209</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>17873</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8999</v>
+        <v>9192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30217</v>
+        <v>32927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03624841501016251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0182509489002472</v>
+        <v>0.01864171921737797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06128249776664826</v>
+        <v>0.0667798456499618</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1053,19 +1053,19 @@
         <v>24022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14586</v>
+        <v>14558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37154</v>
+        <v>37861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04766780327185731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02894256444554712</v>
+        <v>0.02888715707744197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07372613995820448</v>
+        <v>0.07512815894388675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1074,19 +1074,19 @@
         <v>41895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26945</v>
+        <v>28580</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59432</v>
+        <v>61929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04202038162757361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02702569725687487</v>
+        <v>0.02866492643382688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05960954658568127</v>
+        <v>0.06211377074310478</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>40157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27522</v>
+        <v>26268</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58086</v>
+        <v>61861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08144269143054628</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05581627368801117</v>
+        <v>0.05327409256085463</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1178031191179301</v>
+        <v>0.1254603570237041</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -1124,19 +1124,19 @@
         <v>23533</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14227</v>
+        <v>15403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36077</v>
+        <v>36353</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04669719736615483</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02823177051817496</v>
+        <v>0.03056461500181455</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07158823549400767</v>
+        <v>0.0721357867151593</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -1145,19 +1145,19 @@
         <v>63690</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46865</v>
+        <v>47146</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>85115</v>
+        <v>84306</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06388046942274858</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04700509804483939</v>
+        <v>0.0472867409905133</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08536907973321524</v>
+        <v>0.08455757595136308</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>435044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>413089</v>
+        <v>413170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>450069</v>
+        <v>451835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8823088935592912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8377805521024508</v>
+        <v>0.8379456171241652</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9127803850214219</v>
+        <v>0.9163612717279275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>464</v>
@@ -1195,19 +1195,19 @@
         <v>456394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>439337</v>
+        <v>439295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>470015</v>
+        <v>468422</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9056349993619879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8717895408590643</v>
+        <v>0.8717049122066971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9326635955549291</v>
+        <v>0.9295024931203486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>896</v>
@@ -1216,19 +1216,19 @@
         <v>891438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>867312</v>
+        <v>865084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>913210</v>
+        <v>914440</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8940991489496778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8699010594930429</v>
+        <v>0.8676662187025184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9159357146060085</v>
+        <v>0.9171694537517083</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>5191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15194</v>
+        <v>13944</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0162819560546692</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005023733973398168</v>
+        <v>0.005010955546363016</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04765315400636721</v>
+        <v>0.04373131435026652</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>6406</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14355</v>
+        <v>15777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01909849280169917</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004883104674199145</v>
+        <v>0.004876818243654623</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04279753968982081</v>
+        <v>0.04703774003400249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1362,19 +1362,19 @@
         <v>11597</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5070</v>
+        <v>5004</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23329</v>
+        <v>23147</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01772588217622183</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007749445138978969</v>
+        <v>0.007647933072331507</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03565791680542414</v>
+        <v>0.03537846739293561</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>29264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17650</v>
+        <v>17863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42934</v>
+        <v>44450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09177943834660762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05535645627577526</v>
+        <v>0.05602542130873864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1346556201582132</v>
+        <v>0.1394082719919028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1412,19 +1412,19 @@
         <v>19316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10833</v>
+        <v>11091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29979</v>
+        <v>30313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05758757741442706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03229736967784797</v>
+        <v>0.03306761204226727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08937937626787386</v>
+        <v>0.09037636692367043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1433,19 +1433,19 @@
         <v>48579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34291</v>
+        <v>34212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65980</v>
+        <v>67332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.074250634152403</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05241265921598647</v>
+        <v>0.0522908816258171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1008472359617734</v>
+        <v>0.1029128745426353</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>284391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268945</v>
+        <v>267633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296441</v>
+        <v>295677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8919386055987232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8434961092651013</v>
+        <v>0.8393794223189414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9297321949321271</v>
+        <v>0.9273355198823831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1483,19 +1483,19 @@
         <v>309691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298195</v>
+        <v>297327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319335</v>
+        <v>319269</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9233139297838737</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8890400424046883</v>
+        <v>0.8864520429930183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.952066741811639</v>
+        <v>0.9518696615946363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>603</v>
@@ -1504,19 +1504,19 @@
         <v>594082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>574415</v>
+        <v>574747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609783</v>
+        <v>610347</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9080234836713752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8779644888465886</v>
+        <v>0.8784715084010523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9320217256025224</v>
+        <v>0.9328836889326972</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>18777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10994</v>
+        <v>10970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32153</v>
+        <v>32302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05235060870489689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03065275960801507</v>
+        <v>0.03058639301477647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08964415567449728</v>
+        <v>0.09006116004638647</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1629,19 +1629,19 @@
         <v>17870</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10248</v>
+        <v>9430</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30323</v>
+        <v>30327</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04810883284749185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02758748384722675</v>
+        <v>0.02538691737278817</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08163408295675716</v>
+        <v>0.08164429304430532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1650,19 +1650,19 @@
         <v>36647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24798</v>
+        <v>24415</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53301</v>
+        <v>52975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05019258264668844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03396361729828608</v>
+        <v>0.03344006587469203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07300291852005591</v>
+        <v>0.07255524446473173</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>23504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13532</v>
+        <v>13625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37676</v>
+        <v>38484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06552988857746793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0377288749576183</v>
+        <v>0.03798846821259736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1050424188929594</v>
+        <v>0.1072971812707511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1700,19 +1700,19 @@
         <v>34229</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22814</v>
+        <v>22891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46181</v>
+        <v>47538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09214707635441401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06141892153452388</v>
+        <v>0.06162515685178689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1243251158831107</v>
+        <v>0.1279771024259041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1721,19 +1721,19 @@
         <v>57732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43643</v>
+        <v>42071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76619</v>
+        <v>77066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07907152461620411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05977458065381674</v>
+        <v>0.05762183127851123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1049387671177477</v>
+        <v>0.1055516003406082</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>316391</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>298481</v>
+        <v>299142</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>329190</v>
+        <v>329379</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8821195027176352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8321850248985311</v>
+        <v>0.8340278874746355</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9178057877718467</v>
+        <v>0.9183321234557997</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>342</v>
@@ -1771,19 +1771,19 @@
         <v>319357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>302118</v>
+        <v>303666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>332668</v>
+        <v>333814</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8597440907980941</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8133340334203538</v>
+        <v>0.8175014418464727</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8955777169976942</v>
+        <v>0.8986639788956889</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>675</v>
@@ -1792,19 +1792,19 @@
         <v>635748</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>610055</v>
+        <v>611381</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>653519</v>
+        <v>655346</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8707358927371075</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8355460162679123</v>
+        <v>0.8373629654501807</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8950755555640647</v>
+        <v>0.8975775779387113</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>20157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11351</v>
+        <v>11318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32925</v>
+        <v>30976</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09914561579070758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05583275074370286</v>
+        <v>0.05567006038087309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1619479290057805</v>
+        <v>0.1523585003770667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1917,19 +1917,19 @@
         <v>21232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11622</v>
+        <v>13022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33757</v>
+        <v>35360</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1022404072633193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05596468873226907</v>
+        <v>0.06270455330650267</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1625537564355749</v>
+        <v>0.1702710268028687</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -1938,19 +1938,19 @@
         <v>41389</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29592</v>
+        <v>28447</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58930</v>
+        <v>57228</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1007094276664015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07200326274222348</v>
+        <v>0.06921791390300454</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1433912745616295</v>
+        <v>0.1392490135187609</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>18663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9707</v>
+        <v>9722</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29903</v>
+        <v>30178</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09179557949109371</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04774523374033104</v>
+        <v>0.04781664860664626</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1470823450232429</v>
+        <v>0.1484340919709111</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1988,19 +1988,19 @@
         <v>14513</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7258</v>
+        <v>7313</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22986</v>
+        <v>23071</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06988619871240781</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0349522039731192</v>
+        <v>0.03521563206999342</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1106856463284967</v>
+        <v>0.1110950433130132</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2009,19 +2009,19 @@
         <v>33176</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22553</v>
+        <v>21800</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47473</v>
+        <v>49321</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08072467207971516</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05487722213978403</v>
+        <v>0.05304363553692148</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1155133580072728</v>
+        <v>0.1200085892041123</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>164488</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>149664</v>
+        <v>150773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176431</v>
+        <v>176641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8090588047181987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7361419121571056</v>
+        <v>0.7415991267576961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8678019770055336</v>
+        <v>0.8688345817067631</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>173</v>
@@ -2059,19 +2059,19 @@
         <v>171923</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158447</v>
+        <v>157785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183734</v>
+        <v>183499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8278733940242728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.762984497461662</v>
+        <v>0.7597925186790681</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8847469041688044</v>
+        <v>0.883616210981377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>353</v>
@@ -2080,19 +2080,19 @@
         <v>336411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>318430</v>
+        <v>317055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>353595</v>
+        <v>353193</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8185659002538833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7748130082349662</v>
+        <v>0.7714686423039278</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8603781065798941</v>
+        <v>0.8593999368742123</v>
       </c>
     </row>
     <row r="23">
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10089</v>
+        <v>11607</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01239303855087579</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03725643459667474</v>
+        <v>0.04285864516764858</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2205,19 +2205,19 @@
         <v>5026</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14761</v>
+        <v>12687</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01807025336180731</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00599966849775917</v>
+        <v>0.005960675203679069</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.053069570917448</v>
+        <v>0.04561265744432964</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2226,19 +2226,19 @@
         <v>8382</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18334</v>
+        <v>18531</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01526956435877035</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006089389137347627</v>
+        <v>0.006094782418091602</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03339806863961928</v>
+        <v>0.0337560210237358</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>14179</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6786</v>
+        <v>6945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25699</v>
+        <v>26427</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05235586544022559</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02505672643332007</v>
+        <v>0.02564613732935796</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09489785842487888</v>
+        <v>0.09758556602439156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2276,19 +2276,19 @@
         <v>23424</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14811</v>
+        <v>14713</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35597</v>
+        <v>34383</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08421506894889573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05324911133106029</v>
+        <v>0.05289541195531225</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1279810454239806</v>
+        <v>0.1236157683209451</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -2297,19 +2297,19 @@
         <v>37602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24630</v>
+        <v>25398</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52352</v>
+        <v>53316</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06849825641250194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04486755950637148</v>
+        <v>0.0462657224310705</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09536670675088435</v>
+        <v>0.09712209164462379</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>253276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>241154</v>
+        <v>241370</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>261999</v>
+        <v>261751</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9352510960088987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8904887738150896</v>
+        <v>0.891285641444111</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9674598257638787</v>
+        <v>0.9665460004550761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>248</v>
@@ -2347,19 +2347,19 @@
         <v>249694</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>237253</v>
+        <v>238308</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>259656</v>
+        <v>260061</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8977146776892969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8529873456804414</v>
+        <v>0.8567800935406169</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9335304554226156</v>
+        <v>0.9349870559602492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>504</v>
@@ -2368,19 +2368,19 @@
         <v>502970</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>485737</v>
+        <v>485810</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>516485</v>
+        <v>516342</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9162321792287277</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8848400410873454</v>
+        <v>0.8849720832102845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9408507138045408</v>
+        <v>0.9405901017681485</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>80383</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60861</v>
+        <v>62614</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103174</v>
+        <v>102984</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1306976648348095</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09895717666700159</v>
+        <v>0.1018072714385681</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1677558444953147</v>
+        <v>0.1674462725187758</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -2493,19 +2493,19 @@
         <v>92463</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73018</v>
+        <v>72982</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>116286</v>
+        <v>112982</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1448758736337134</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1144097613766964</v>
+        <v>0.1143522363157385</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1822045582244489</v>
+        <v>0.177026564821929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>110</v>
@@ -2514,19 +2514,19 @@
         <v>172845</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>143940</v>
+        <v>145006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>203118</v>
+        <v>202958</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1379179569290821</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1148535499330584</v>
+        <v>0.11570455428816</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1620737866775019</v>
+        <v>0.1619458917400637</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>52916</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36117</v>
+        <v>36620</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>71218</v>
+        <v>72946</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08603922528716086</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05872461178225557</v>
+        <v>0.05954172237864314</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.115796528395042</v>
+        <v>0.1186056475197363</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2564,19 +2564,19 @@
         <v>70537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55754</v>
+        <v>55174</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>87629</v>
+        <v>89663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1105222576768549</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08735859954020621</v>
+        <v>0.08645049678292195</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1373027688034273</v>
+        <v>0.1404899310216975</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -2585,19 +2585,19 @@
         <v>123454</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>102182</v>
+        <v>101593</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>150023</v>
+        <v>151354</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09850727733198571</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08153400017100182</v>
+        <v>0.08106378431157391</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1197072476327376</v>
+        <v>0.1207699394638229</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>481728</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>457036</v>
+        <v>456508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>505227</v>
+        <v>505661</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7832631098780297</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7431155777210455</v>
+        <v>0.7422569774934221</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8214704452355691</v>
+        <v>0.8221766248442381</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>498</v>
@@ -2635,19 +2635,19 @@
         <v>475219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>450245</v>
+        <v>451707</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>497184</v>
+        <v>498616</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7446018686894318</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7054707711287764</v>
+        <v>0.7077625184353735</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7790176334283815</v>
+        <v>0.7812621168142695</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1013</v>
@@ -2656,19 +2656,19 @@
         <v>956947</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>921856</v>
+        <v>925458</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>989786</v>
+        <v>993075</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7635747657389322</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7355742756527649</v>
+        <v>0.7384485856575738</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.789778024387507</v>
+        <v>0.7924018951859225</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>31672</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20519</v>
+        <v>20143</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48937</v>
+        <v>47974</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04258223943005798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02758710833002094</v>
+        <v>0.02708137724194052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06579382519185124</v>
+        <v>0.06449842513609576</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -2781,19 +2781,19 @@
         <v>32454</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20732</v>
+        <v>20345</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49154</v>
+        <v>47820</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04142186207306215</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02646002109665809</v>
+        <v>0.02596630650671114</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0627357110083781</v>
+        <v>0.06103260495093871</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -2802,19 +2802,19 @@
         <v>64127</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>45881</v>
+        <v>46390</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84488</v>
+        <v>83928</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04198696354958457</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03004077229038188</v>
+        <v>0.03037383055048395</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05531815978681401</v>
+        <v>0.05495163607455399</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>68342</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>50566</v>
+        <v>50439</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>89278</v>
+        <v>90060</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09188304151954949</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06798434175755298</v>
+        <v>0.06781278440252887</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1200307407339633</v>
+        <v>0.1210821822716451</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>38</v>
@@ -2852,19 +2852,19 @@
         <v>46584</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>32554</v>
+        <v>34141</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>61570</v>
+        <v>61999</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05945496146768918</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04154868356100372</v>
+        <v>0.04357429567656611</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07858232885018858</v>
+        <v>0.07912965518592029</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>79</v>
@@ -2873,19 +2873,19 @@
         <v>114926</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>91166</v>
+        <v>93802</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>140745</v>
+        <v>141093</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07524737227923478</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05969063391003909</v>
+        <v>0.06141655409702526</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09215239681011302</v>
+        <v>0.09238028773356001</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>643780</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>618890</v>
+        <v>620163</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>664583</v>
+        <v>665311</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8655347190503926</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8320702188014861</v>
+        <v>0.833782676462245</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8935033205152199</v>
+        <v>0.8944822984939443</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>688</v>
@@ -2923,19 +2923,19 @@
         <v>704473</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>680223</v>
+        <v>683263</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>721341</v>
+        <v>722336</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8991231764592487</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8681729756226104</v>
+        <v>0.8720525131982468</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9206514377690196</v>
+        <v>0.9219217782919391</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1362</v>
@@ -2944,19 +2944,19 @@
         <v>1348253</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1315257</v>
+        <v>1314803</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1377126</v>
+        <v>1376386</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8827656641711806</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8611613600975905</v>
+        <v>0.8608638417430249</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9016700447338295</v>
+        <v>0.9011856443699837</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>204415</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>175187</v>
+        <v>168200</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>243006</v>
+        <v>238033</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06238740062729376</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05346713267501402</v>
+        <v>0.05133459321319873</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07416544452589145</v>
+        <v>0.07264767811438756</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>141</v>
@@ -3069,19 +3069,19 @@
         <v>224604</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>189433</v>
+        <v>192960</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>260869</v>
+        <v>262990</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06646667827835435</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05605866462599759</v>
+        <v>0.05710221267301797</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0771984502075488</v>
+        <v>0.07782632367060643</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>268</v>
@@ -3090,19 +3090,19 @@
         <v>429019</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>379658</v>
+        <v>375574</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>476739</v>
+        <v>479229</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06445849756599953</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0570421975928932</v>
+        <v>0.05642859924641581</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07162821044596245</v>
+        <v>0.07200238625562158</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>272955</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>235508</v>
+        <v>235627</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>314092</v>
+        <v>316123</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08330578942801851</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07187687500314076</v>
+        <v>0.07191329335384623</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09586089141475403</v>
+        <v>0.09648065355233365</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>210</v>
@@ -3140,19 +3140,19 @@
         <v>249635</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>218569</v>
+        <v>218057</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>279946</v>
+        <v>281893</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07387405925164651</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06468070241121252</v>
+        <v>0.06452916281507348</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08284392421065352</v>
+        <v>0.08342006954124151</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>372</v>
@@ -3161,19 +3161,19 @@
         <v>522590</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>470941</v>
+        <v>472818</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>573669</v>
+        <v>579754</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07851718978712273</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07075719027808113</v>
+        <v>0.07103908529160916</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08619163502141176</v>
+        <v>0.08710581762441778</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>2799173</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2747729</v>
+        <v>2747732</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2846892</v>
+        <v>2850361</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8543068099446878</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8386061856285186</v>
+        <v>0.8386071748281158</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8688704994406453</v>
+        <v>0.8699295073313446</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2938</v>
@@ -3211,19 +3211,19 @@
         <v>2904958</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2865158</v>
+        <v>2856179</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2949613</v>
+        <v>2949529</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8596592624699991</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.847881236330258</v>
+        <v>0.8452241066940667</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8728740804620028</v>
+        <v>0.872848977565687</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5855</v>
@@ -3232,19 +3232,19 @@
         <v>5704131</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5642363</v>
+        <v>5634010</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5772150</v>
+        <v>5771550</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8570243126468777</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.847743965232807</v>
+        <v>0.8464888864838584</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8672439184705061</v>
+        <v>0.8671537034659964</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>57021</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43551</v>
+        <v>44008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71452</v>
+        <v>73635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1934642282072042</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1477604501884673</v>
+        <v>0.1493126526114498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2424255892861719</v>
+        <v>0.249833587266026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3601,19 +3601,19 @@
         <v>43019</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30994</v>
+        <v>30874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57250</v>
+        <v>56725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1497658578509667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1079006496893809</v>
+        <v>0.1074814663960874</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1993075576492136</v>
+        <v>0.1974785331726695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -3622,19 +3622,19 @@
         <v>100041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81616</v>
+        <v>82156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120479</v>
+        <v>120024</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1718963512488496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.140237996338431</v>
+        <v>0.1411654286045619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2070151729894255</v>
+        <v>0.2062321230788263</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>40156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25992</v>
+        <v>26402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57637</v>
+        <v>56585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1362424167970847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08818600504326578</v>
+        <v>0.08957944364678699</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1955532264982348</v>
+        <v>0.1919830890583697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3672,19 +3672,19 @@
         <v>44476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28941</v>
+        <v>30291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60317</v>
+        <v>63147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1548368098013466</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1007536883351535</v>
+        <v>0.1054520275852528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2099861367891881</v>
+        <v>0.2198374424356491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -3693,19 +3693,19 @@
         <v>84632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64099</v>
+        <v>63695</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109817</v>
+        <v>107244</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1454199119110178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.110139356042053</v>
+        <v>0.1094453314355851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1886952121457289</v>
+        <v>0.1842729109619892</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>197561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178903</v>
+        <v>178703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215287</v>
+        <v>216022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6702933549957112</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6069889224330437</v>
+        <v>0.6063126619135706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7304357677734452</v>
+        <v>0.732928072633933</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -3743,19 +3743,19 @@
         <v>199749</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>182279</v>
+        <v>180197</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216523</v>
+        <v>215831</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6953973323476866</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6345753541805977</v>
+        <v>0.6273287760305456</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7537910164332096</v>
+        <v>0.7513814304606027</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>411</v>
@@ -3764,19 +3764,19 @@
         <v>397310</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>367871</v>
+        <v>373837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>421011</v>
+        <v>423375</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6826837368401326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6320988217718039</v>
+        <v>0.6423499927007273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7234075289418069</v>
+        <v>0.7274698451576302</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>18383</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10367</v>
+        <v>10187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30269</v>
+        <v>29909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0363646782595063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0205071601827072</v>
+        <v>0.02015120912358094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05987557342775131</v>
+        <v>0.05916337707038559</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3889,19 +3889,19 @@
         <v>21107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12529</v>
+        <v>12513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32749</v>
+        <v>32285</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04029936472958175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02392107606159598</v>
+        <v>0.02389011651917768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06252597261256164</v>
+        <v>0.06164031732596914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -3910,19 +3910,19 @@
         <v>39491</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27891</v>
+        <v>27949</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57186</v>
+        <v>53376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03836688031003659</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02709738189240294</v>
+        <v>0.02715377602867211</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05555891156537106</v>
+        <v>0.0518573168957237</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>65420</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46743</v>
+        <v>47353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>90309</v>
+        <v>87873</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1294087557933941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09246335002380199</v>
+        <v>0.09367081121827253</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1786441681050515</v>
+        <v>0.1738249744364394</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -3960,19 +3960,19 @@
         <v>53370</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38392</v>
+        <v>36535</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74266</v>
+        <v>73390</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1018961485738853</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07329965100232866</v>
+        <v>0.06975423189111556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1417933127922852</v>
+        <v>0.14011966800975</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>59</v>
@@ -3981,19 +3981,19 @@
         <v>118789</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>94232</v>
+        <v>92899</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>147837</v>
+        <v>147906</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.115408708010863</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09155058170878444</v>
+        <v>0.09025566192175653</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1436294938071138</v>
+        <v>0.1436966766338444</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>421724</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>398239</v>
+        <v>399027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>443496</v>
+        <v>442035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8342265659470997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7877699887888223</v>
+        <v>0.789329505385319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8772934214444161</v>
+        <v>0.8744036865696533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>435</v>
@@ -4031,19 +4031,19 @@
         <v>449288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426820</v>
+        <v>426916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>465866</v>
+        <v>467974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.857804486696533</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8149073914105107</v>
+        <v>0.8150907051337859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.889456821186457</v>
+        <v>0.8934817304962965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>862</v>
@@ -4052,19 +4052,19 @@
         <v>871012</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>839279</v>
+        <v>841125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>897648</v>
+        <v>898923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8462244116791005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8153945749127574</v>
+        <v>0.8171874822432516</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8721026657451698</v>
+        <v>0.8733406827516416</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>4014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11136</v>
+        <v>10748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01238625042180252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003858967249136337</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03436621187043999</v>
+        <v>0.03316785159140156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4177,19 +4177,19 @@
         <v>9579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4740</v>
+        <v>4716</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18541</v>
+        <v>16983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02808909794028473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01389925938775141</v>
+        <v>0.01383013544573897</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05436822372363746</v>
+        <v>0.04980084699171222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -4198,19 +4198,19 @@
         <v>13593</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6506</v>
+        <v>7340</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23710</v>
+        <v>23486</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0204380604931599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009782155996939887</v>
+        <v>0.0110358550292983</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03565049902786012</v>
+        <v>0.03531362568480381</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>22464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11938</v>
+        <v>12439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38169</v>
+        <v>38101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06932495332551428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03684190589269212</v>
+        <v>0.03838798142525649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1177885490808041</v>
+        <v>0.1175791588578414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4248,19 +4248,19 @@
         <v>31858</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18877</v>
+        <v>18793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46972</v>
+        <v>47807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09341939156864282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05535362196230044</v>
+        <v>0.05510906108294526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1377386318775031</v>
+        <v>0.1401896539501356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -4269,19 +4269,19 @@
         <v>54322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36757</v>
+        <v>36670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77525</v>
+        <v>74583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08167964506415459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05526761775827609</v>
+        <v>0.05513663495794506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.116567266431758</v>
+        <v>0.1121432105203248</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>297568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282714</v>
+        <v>281816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>309798</v>
+        <v>308086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9182887962526832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8724487681443553</v>
+        <v>0.8696777508159709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9560321759662422</v>
+        <v>0.9507465317382929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>292</v>
@@ -4319,19 +4319,19 @@
         <v>299583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282428</v>
+        <v>282698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>313466</v>
+        <v>313531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8784915104910724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.828186271869518</v>
+        <v>0.828976671586403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9192024818973851</v>
+        <v>0.919390727471201</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>597</v>
@@ -4340,19 +4340,19 @@
         <v>597151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>572387</v>
+        <v>575512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>615702</v>
+        <v>615367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8978822944426855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8606476418933818</v>
+        <v>0.8653464340591212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9257753221239368</v>
+        <v>0.9252716704474593</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>19327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11500</v>
+        <v>11379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29833</v>
+        <v>30576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05167950128847568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03074967941339132</v>
+        <v>0.03042673546308372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07977042501163834</v>
+        <v>0.08175884226053942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>18176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11010</v>
+        <v>11337</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28758</v>
+        <v>30668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04673180186295699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02830747169212499</v>
+        <v>0.02914648244160916</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07393800676962292</v>
+        <v>0.07884794415511794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -4486,19 +4486,19 @@
         <v>37504</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25782</v>
+        <v>25699</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53278</v>
+        <v>52560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04915711421203177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03379365559411303</v>
+        <v>0.03368431253739667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06983367244001804</v>
+        <v>0.06889257290343974</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>38608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22994</v>
+        <v>24019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55866</v>
+        <v>57477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1032341245562756</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06148482052386677</v>
+        <v>0.06422465578026529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1493826989134534</v>
+        <v>0.1536901686328659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -4536,19 +4536,19 @@
         <v>40034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26015</v>
+        <v>26316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56225</v>
+        <v>56094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1029288677738545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06688374845391799</v>
+        <v>0.06765826800316303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1445552235120913</v>
+        <v>0.1442197156338626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4557,19 +4557,19 @@
         <v>78642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58639</v>
+        <v>60058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103038</v>
+        <v>106400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1030785015693568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07686049594562448</v>
+        <v>0.07872007969609046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1350557447541825</v>
+        <v>0.1394611634221274</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>316047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>297677</v>
+        <v>297637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>333018</v>
+        <v>332404</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8450863741552487</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7959669524764723</v>
+        <v>0.7958601608240877</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8904640885394783</v>
+        <v>0.8888236774977328</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>332</v>
@@ -4607,19 +4607,19 @@
         <v>330740</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>312109</v>
+        <v>312860</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>346044</v>
+        <v>346542</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8503393303631885</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8024372037800107</v>
+        <v>0.804369517760948</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8896853111450228</v>
+        <v>0.8909665973995539</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>643</v>
@@ -4628,19 +4628,19 @@
         <v>646787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>619767</v>
+        <v>619218</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>669552</v>
+        <v>668652</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8477643842186114</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8123479544388339</v>
+        <v>0.8116277796334564</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8776022960669152</v>
+        <v>0.876423530265118</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>6963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14478</v>
+        <v>15664</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03274723468778497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01243374821337384</v>
+        <v>0.01243792070077678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06809588682053863</v>
+        <v>0.07367371654437108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -4753,19 +4753,19 @@
         <v>6910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2288</v>
+        <v>2367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13845</v>
+        <v>13880</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03146780549713168</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01041958286290692</v>
+        <v>0.01078084291697702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06305127536816367</v>
+        <v>0.06321021068947935</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -4774,19 +4774,19 @@
         <v>13873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6959</v>
+        <v>7414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24373</v>
+        <v>24418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03209719938121887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01610146333210366</v>
+        <v>0.0171537403701167</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05639231614616393</v>
+        <v>0.05649597023979379</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>15897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8044</v>
+        <v>7549</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30366</v>
+        <v>28296</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07476741874480525</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03783540158787027</v>
+        <v>0.03550594324633104</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1428207817111994</v>
+        <v>0.1330859030418895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -4824,19 +4824,19 @@
         <v>18005</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9496</v>
+        <v>9175</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30703</v>
+        <v>30711</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08199524002828652</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04324570481525487</v>
+        <v>0.0417840445494514</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1398201481160179</v>
+        <v>0.1398573867071937</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -4845,19 +4845,19 @@
         <v>33902</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21537</v>
+        <v>20666</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51572</v>
+        <v>50699</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07843963371233598</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0498289194061146</v>
+        <v>0.04781541454686875</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1193215187772407</v>
+        <v>0.117301357953244</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>189758</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174264</v>
+        <v>174941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>199250</v>
+        <v>199668</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8924853465674097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8196126553349568</v>
+        <v>0.8227935692466288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9371281801583244</v>
+        <v>0.9390903594686104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>196</v>
@@ -4895,19 +4895,19 @@
         <v>194676</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181668</v>
+        <v>181055</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>204702</v>
+        <v>205189</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8865369544745818</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8272998987783075</v>
+        <v>0.8245111091965809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9321954294232488</v>
+        <v>0.9344157725041349</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>379</v>
@@ -4916,19 +4916,19 @@
         <v>384434</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>366716</v>
+        <v>365424</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>398596</v>
+        <v>399253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8894631669064451</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8484691408407623</v>
+        <v>0.8454800944873524</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9222298017744136</v>
+        <v>0.9237502486745401</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>4955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1189</v>
+        <v>1317</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12507</v>
+        <v>13241</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01808643506676961</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004339892154526714</v>
+        <v>0.004805290771663961</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04565047839372392</v>
+        <v>0.0483268590802679</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -5041,19 +5041,19 @@
         <v>9435</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4684</v>
+        <v>4665</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18041</v>
+        <v>18143</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03369409198218624</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01672739219169477</v>
+        <v>0.01666001115242476</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06442411660500182</v>
+        <v>0.06479064936668696</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -5065,16 +5065,16 @@
         <v>7474</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23923</v>
+        <v>24153</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02597548391545314</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01349094250143268</v>
+        <v>0.01349091523085579</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04318175493821017</v>
+        <v>0.04359666468644943</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>26601</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14909</v>
+        <v>14887</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43584</v>
+        <v>41737</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09709020374656661</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05441758653397757</v>
+        <v>0.05433624915363872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1590760819534776</v>
+        <v>0.1523355234327644</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5112,19 +5112,19 @@
         <v>19981</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11079</v>
+        <v>9522</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35557</v>
+        <v>32242</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07135243356582711</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03956357542948444</v>
+        <v>0.03400349586944994</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1269741681234691</v>
+        <v>0.1151370678679871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5133,19 +5133,19 @@
         <v>46582</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30751</v>
+        <v>30894</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66412</v>
+        <v>66955</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08408078616951295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05550687371982984</v>
+        <v>0.05576337456902084</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1198751754932213</v>
+        <v>0.1208544639359564</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>242425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>227474</v>
+        <v>226248</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>254966</v>
+        <v>254519</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8848233611866638</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8302546685821175</v>
+        <v>0.8257784548541792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9305965311771821</v>
+        <v>0.9289661937026218</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>250</v>
@@ -5183,19 +5183,19 @@
         <v>250615</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>236045</v>
+        <v>237761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>260654</v>
+        <v>262392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8949534744519867</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8429232894956031</v>
+        <v>0.8490519461393465</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9308035490180386</v>
+        <v>0.9370104360435999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>494</v>
@@ -5204,19 +5204,19 @@
         <v>493040</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>473629</v>
+        <v>471902</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>510136</v>
+        <v>509952</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8899437299150339</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8549074587455947</v>
+        <v>0.8517896602220331</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9208034662738496</v>
+        <v>0.9204714562172502</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>75503</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58012</v>
+        <v>58578</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94301</v>
+        <v>93691</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1139180210080858</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08752787882592133</v>
+        <v>0.0883813025622202</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1422796474697014</v>
+        <v>0.1413594595448055</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -5329,19 +5329,19 @@
         <v>101288</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>82363</v>
+        <v>83112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>121825</v>
+        <v>122237</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1459785366301275</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1187035502644935</v>
+        <v>0.1197838905249416</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.175577970812354</v>
+        <v>0.1761708296119259</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>143</v>
@@ -5350,19 +5350,19 @@
         <v>176791</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>151901</v>
+        <v>150438</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>205262</v>
+        <v>205446</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1303153463459874</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1119684873381923</v>
+        <v>0.1108898214217519</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1513016540926621</v>
+        <v>0.1514375431798077</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>84858</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64578</v>
+        <v>64751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111402</v>
+        <v>111715</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1280317324550748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09743371195871202</v>
+        <v>0.09769526342656129</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1680806612458044</v>
+        <v>0.1685531814548354</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -5400,19 +5400,19 @@
         <v>83368</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>63480</v>
+        <v>63128</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>107108</v>
+        <v>107060</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1201519498359937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09148912574599531</v>
+        <v>0.09098170878864115</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1543668278904273</v>
+        <v>0.1542979577039752</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>86</v>
@@ -5421,19 +5421,19 @@
         <v>168226</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>135987</v>
+        <v>136257</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>201688</v>
+        <v>202445</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1240016238716624</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1002382125527316</v>
+        <v>0.1004370684007495</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1486670307818298</v>
+        <v>0.1492250431456717</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>502427</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>472517</v>
+        <v>476672</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>527277</v>
+        <v>527581</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7580502465368395</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7129235730962262</v>
+        <v>0.7191923789297544</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7955439882493124</v>
+        <v>0.7960023588847195</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>506</v>
@@ -5471,19 +5471,19 @@
         <v>509198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>482747</v>
+        <v>481198</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>534762</v>
+        <v>533983</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7338695135338787</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6957483022472012</v>
+        <v>0.6935162797081108</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7707140207760731</v>
+        <v>0.769591079562542</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1025</v>
@@ -5492,19 +5492,19 @@
         <v>1011624</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>970958</v>
+        <v>972477</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1046050</v>
+        <v>1048669</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7456830297823501</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7157077438913467</v>
+        <v>0.7168269529712488</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.771058744000661</v>
+        <v>0.7729889768159383</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>23060</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13317</v>
+        <v>13452</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36700</v>
+        <v>35161</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02959851988207102</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01709283891602613</v>
+        <v>0.01726608757923683</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04710519553464829</v>
+        <v>0.04513102025386193</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -5617,19 +5617,19 @@
         <v>21859</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13183</v>
+        <v>13277</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34603</v>
+        <v>32847</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02653227773317154</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01600175075938531</v>
+        <v>0.01611573439492315</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04200151145883837</v>
+        <v>0.03986993134740487</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -5638,19 +5638,19 @@
         <v>44919</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31785</v>
+        <v>30962</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62127</v>
+        <v>60258</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02802259374934186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01982882737350961</v>
+        <v>0.01931539106895181</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03875804207416877</v>
+        <v>0.03759170894330767</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>65219</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>45882</v>
+        <v>46323</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>90599</v>
+        <v>92153</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0837107233823884</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05889149427750618</v>
+        <v>0.05945774011925169</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1162866046816029</v>
+        <v>0.1182812583632047</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>32</v>
@@ -5688,19 +5688,19 @@
         <v>61240</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>42839</v>
+        <v>42722</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>85608</v>
+        <v>85120</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07433367571692436</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05199872113558947</v>
+        <v>0.0518562877895647</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1039114891118135</v>
+        <v>0.1033191098678831</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>62</v>
@@ -5709,19 +5709,19 @@
         <v>126459</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>100503</v>
+        <v>99915</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>157413</v>
+        <v>154748</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07889129499211739</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06269851379551178</v>
+        <v>0.06233181152460952</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09820206659733684</v>
+        <v>0.09653934665825173</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>690819</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>662944</v>
+        <v>663948</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>712667</v>
+        <v>712737</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8866907567355405</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8509122728195326</v>
+        <v>0.8522014728267657</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9147338731562104</v>
+        <v>0.9148227467967331</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>707</v>
@@ -5759,19 +5759,19 @@
         <v>740754</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>714377</v>
+        <v>714769</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>761670</v>
+        <v>761048</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8991340465499041</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8671171578687409</v>
+        <v>0.8675923596799163</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9245211814813051</v>
+        <v>0.9237662206431499</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1377</v>
@@ -5780,19 +5780,19 @@
         <v>1431573</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1399483</v>
+        <v>1397919</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1463237</v>
+        <v>1459585</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8930861112585408</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.873066636139128</v>
+        <v>0.872091162598214</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9128394768126498</v>
+        <v>0.9105610205145016</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>209227</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>179264</v>
+        <v>175819</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>239751</v>
+        <v>237806</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06105651713010651</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0523126699788356</v>
+        <v>0.05130725496631507</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06996387590954584</v>
+        <v>0.06939637962170171</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>194</v>
@@ -5905,19 +5905,19 @@
         <v>231374</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>200104</v>
+        <v>202176</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>265366</v>
+        <v>265721</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06502358101283792</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05623561932893989</v>
+        <v>0.05681791633843752</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07457646235347724</v>
+        <v>0.07467615707274065</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>356</v>
@@ -5926,19 +5926,19 @@
         <v>440601</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>398749</v>
+        <v>401241</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>490370</v>
+        <v>484201</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.063077399268209</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05708580805890392</v>
+        <v>0.05744253770981805</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07020242861438433</v>
+        <v>0.06931926748321078</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>359222</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>311031</v>
+        <v>309471</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>409011</v>
+        <v>410538</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1048279579455588</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09076480677393044</v>
+        <v>0.09030959359306008</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.119357381426452</v>
+        <v>0.119802968425897</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>190</v>
@@ -5976,19 +5976,19 @@
         <v>352332</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>306439</v>
+        <v>310962</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>400310</v>
+        <v>401018</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09901670287900963</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08611938565324276</v>
+        <v>0.08739048787742806</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1125001735347601</v>
+        <v>0.1126989850495907</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>363</v>
@@ -5997,19 +5997,19 @@
         <v>711554</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>646797</v>
+        <v>651522</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>782266</v>
+        <v>782587</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1018676170206073</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09259681825759852</v>
+        <v>0.09327328594981663</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1119908236166506</v>
+        <v>0.1120368083604466</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>2858330</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2802408</v>
+        <v>2800736</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2912438</v>
+        <v>2914772</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8341155249243346</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8177964244228372</v>
+        <v>0.817308673097968</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8499053780966126</v>
+        <v>0.8505866051668036</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2914</v>
@@ -6047,19 +6047,19 @@
         <v>2974603</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2916175</v>
+        <v>2919612</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3024482</v>
+        <v>3027857</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8359597161081525</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8195395052045925</v>
+        <v>0.8205054073181143</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8499774224600947</v>
+        <v>0.8509258327326399</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5788</v>
@@ -6068,19 +6068,19 @@
         <v>5832933</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5757201</v>
+        <v>5749977</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5907307</v>
+        <v>5901261</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8350549837111837</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.824213026752188</v>
+        <v>0.8231788752710923</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.845702567590806</v>
+        <v>0.8448369631165265</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>69614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55363</v>
+        <v>55408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87813</v>
+        <v>85981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2369761617803775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1884643547987381</v>
+        <v>0.1886148553932372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2989256661394321</v>
+        <v>0.2926911208656086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -6437,19 +6437,19 @@
         <v>55341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44137</v>
+        <v>42247</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68883</v>
+        <v>68178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1916868931591381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1528817371691172</v>
+        <v>0.1463349858682891</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.238593745222225</v>
+        <v>0.2361527850350946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -6458,19 +6458,19 @@
         <v>124955</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105722</v>
+        <v>104775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148439</v>
+        <v>147053</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2145281689484844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1815087557938231</v>
+        <v>0.1798823282002922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2548469879254833</v>
+        <v>0.252467099110613</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>34069</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22492</v>
+        <v>22037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49937</v>
+        <v>49633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1159754248232692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07656512131539392</v>
+        <v>0.07501530821130463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1699935763239276</v>
+        <v>0.1689566971496481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -6508,19 +6508,19 @@
         <v>39078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26728</v>
+        <v>27405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54803</v>
+        <v>54805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1353582357486814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0925800572623233</v>
+        <v>0.09492396048929623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1898238505160255</v>
+        <v>0.1898308811791007</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -6529,19 +6529,19 @@
         <v>73147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54623</v>
+        <v>53465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97039</v>
+        <v>94645</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1255826720578059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09377967885470852</v>
+        <v>0.09179038444637168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1666007137593035</v>
+        <v>0.1624909445536544</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>190078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>171086</v>
+        <v>173685</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>206534</v>
+        <v>208069</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6470484133963533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5823970676086389</v>
+        <v>0.5912470646119892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7030667390892951</v>
+        <v>0.7082950105113773</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>200</v>
@@ -6579,19 +6579,19 @@
         <v>194284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>178312</v>
+        <v>178188</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>211408</v>
+        <v>211306</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6729548710921804</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6176329458036768</v>
+        <v>0.6172002892212842</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7322676527051428</v>
+        <v>0.7319139216853436</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>393</v>
@@ -6600,19 +6600,19 @@
         <v>384362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>357276</v>
+        <v>359957</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>410655</v>
+        <v>410143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6598891589937097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6133881074101455</v>
+        <v>0.6179892737500374</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7050300502536293</v>
+        <v>0.7041521020875662</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>12241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5537</v>
+        <v>6476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22864</v>
+        <v>23387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02435679057110363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01101644268265332</v>
+        <v>0.01288553725873984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04549307721481088</v>
+        <v>0.04653398624261404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -6725,19 +6725,19 @@
         <v>12858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6082</v>
+        <v>6326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21617</v>
+        <v>22489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02458119700244515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01162807836982844</v>
+        <v>0.01209394816616177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04132585673611486</v>
+        <v>0.04299361641428321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -6746,19 +6746,19 @@
         <v>25099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15331</v>
+        <v>15731</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36632</v>
+        <v>38539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02447123739395464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01494760745527078</v>
+        <v>0.01533737781952852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03571595433685041</v>
+        <v>0.03757479815290117</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>31133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18853</v>
+        <v>19137</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47242</v>
+        <v>46845</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06194632690838141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03751252992444457</v>
+        <v>0.03807726300119899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0940001453947793</v>
+        <v>0.09321063002511837</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -6796,19 +6796,19 @@
         <v>24748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14272</v>
+        <v>14150</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40019</v>
+        <v>40061</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04731141870331643</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02728374692844001</v>
+        <v>0.02705141955472606</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07650557874014381</v>
+        <v>0.07658702778289192</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -6817,19 +6817,19 @@
         <v>55881</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38108</v>
+        <v>39812</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76975</v>
+        <v>75021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05448255353623221</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03715443893149586</v>
+        <v>0.03881578491332473</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07504942610327593</v>
+        <v>0.07314432537407051</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>459201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>441825</v>
+        <v>441642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>473833</v>
+        <v>471946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.913696882520515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8791216219629584</v>
+        <v>0.8787583327748975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9428099677581844</v>
+        <v>0.9390566062452678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>459</v>
@@ -6867,19 +6867,19 @@
         <v>485478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>469125</v>
+        <v>469449</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>498503</v>
+        <v>498145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9281073842942384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8968451330868169</v>
+        <v>0.8974645533362343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9530084773688942</v>
+        <v>0.9523233536378966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>906</v>
@@ -6888,19 +6888,19 @@
         <v>944679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>920970</v>
+        <v>921427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>964820</v>
+        <v>962915</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9210462090698132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8979296728185688</v>
+        <v>0.8983751327768651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9406832464277127</v>
+        <v>0.9388254343142424</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>4882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10953</v>
+        <v>10930</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01532585634137155</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003816635316206114</v>
+        <v>0.003862112874351033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03438077775750126</v>
+        <v>0.03431152836452844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -7013,19 +7013,19 @@
         <v>16776</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10210</v>
+        <v>10076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26207</v>
+        <v>26872</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04988327125533218</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03035831045200532</v>
+        <v>0.02995929804622972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07792674814892904</v>
+        <v>0.07990277722148824</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -7034,19 +7034,19 @@
         <v>21658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14200</v>
+        <v>13681</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33659</v>
+        <v>32611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03307273547904554</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02168414685022988</v>
+        <v>0.02089060241494119</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05139817690524214</v>
+        <v>0.04979686717685211</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>26332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15968</v>
+        <v>15358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38818</v>
+        <v>39340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08265927165102704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05012451190881026</v>
+        <v>0.0482093263201497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1218517767928677</v>
+        <v>0.123490539828464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -7084,19 +7084,19 @@
         <v>36205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23941</v>
+        <v>24167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50981</v>
+        <v>51088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1076539701688576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07118679243319216</v>
+        <v>0.07186029832029006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1515894081066224</v>
+        <v>0.1519078776292282</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -7105,19 +7105,19 @@
         <v>62537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45536</v>
+        <v>46012</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81996</v>
+        <v>83426</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09549524027839507</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06953437847458267</v>
+        <v>0.07026105510152789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1252091191700195</v>
+        <v>0.1273927593274403</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>287350</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274022</v>
+        <v>273829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298580</v>
+        <v>299483</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9020148720076014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8601747619880434</v>
+        <v>0.8595709593984203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9372643596288256</v>
+        <v>0.9401014397617516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -7155,19 +7155,19 @@
         <v>283328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268336</v>
+        <v>267391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298638</v>
+        <v>297276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8424627585758102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7978858173615967</v>
+        <v>0.7950739051124177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.887987225498211</v>
+        <v>0.8839359070438504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>608</v>
@@ -7176,19 +7176,19 @@
         <v>570678</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>549913</v>
+        <v>549415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>589396</v>
+        <v>590211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8714320242425594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8397237523923475</v>
+        <v>0.8389621874549842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.900015018124614</v>
+        <v>0.9012590722459983</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>35997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25991</v>
+        <v>25777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51899</v>
+        <v>49738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09729957833302923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07025304514953791</v>
+        <v>0.06967385896766495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1402811121763661</v>
+        <v>0.1344401955608396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -7301,19 +7301,19 @@
         <v>32380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22618</v>
+        <v>22644</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43827</v>
+        <v>45561</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08360805671464162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05840266775097546</v>
+        <v>0.05846789581670083</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1131645375271276</v>
+        <v>0.1176423561351493</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -7322,19 +7322,19 @@
         <v>68377</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52860</v>
+        <v>52708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86245</v>
+        <v>86847</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09029724806913297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06980490251369131</v>
+        <v>0.06960489426603331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1138929691328198</v>
+        <v>0.1146882845511509</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>44817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32165</v>
+        <v>33179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62231</v>
+        <v>62176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1211386884943913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08694182557817808</v>
+        <v>0.08968210804545411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1682088526327679</v>
+        <v>0.1680595523419178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -7372,19 +7372,19 @@
         <v>58622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43031</v>
+        <v>42788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75791</v>
+        <v>77071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1513683539626887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1111102509501252</v>
+        <v>0.1104814672200032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1956994416834642</v>
+        <v>0.1990039273553958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -7393,19 +7393,19 @@
         <v>103439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81874</v>
+        <v>83146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>128956</v>
+        <v>128021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1365992126987892</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1081202831765574</v>
+        <v>0.1098000039682079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1702958554333895</v>
+        <v>0.1690606610175309</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>289150</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>268257</v>
+        <v>270131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>306250</v>
+        <v>303882</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7815617331725794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7250885161529252</v>
+        <v>0.7301558712045837</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.82778290112469</v>
+        <v>0.8213817375083949</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>293</v>
@@ -7443,19 +7443,19 @@
         <v>296281</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>277313</v>
+        <v>274905</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>313397</v>
+        <v>312809</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7650235893226697</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7160483844069061</v>
+        <v>0.7098308671890484</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8092187011879053</v>
+        <v>0.8077004224587709</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>592</v>
@@ -7464,19 +7464,19 @@
         <v>585430</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>559243</v>
+        <v>557464</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>611777</v>
+        <v>608761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7731035392320778</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7385209984807438</v>
+        <v>0.7361716608651757</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8078961371621284</v>
+        <v>0.8039129785584611</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>12531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6355</v>
+        <v>6323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22020</v>
+        <v>22533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05932503130430302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03008666141688287</v>
+        <v>0.02993513581832248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.104250872562421</v>
+        <v>0.1066787985453963</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -7589,19 +7589,19 @@
         <v>15958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9047</v>
+        <v>9045</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24764</v>
+        <v>24139</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07300464078894779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04138913671845906</v>
+        <v>0.04137832623120277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1132921605218314</v>
+        <v>0.1104318266179011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -7610,19 +7610,19 @@
         <v>28489</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19331</v>
+        <v>18319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40948</v>
+        <v>39408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06628205586069515</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04497659813720965</v>
+        <v>0.04262104669308722</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09527044380313864</v>
+        <v>0.09168786509639823</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>17661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8258</v>
+        <v>9616</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28281</v>
+        <v>29244</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08361566026736771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03909741496395232</v>
+        <v>0.04552407573160205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1338930292711083</v>
+        <v>0.1384535747928038</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -7660,19 +7660,19 @@
         <v>14143</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7329</v>
+        <v>7117</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25604</v>
+        <v>25001</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06470249639045911</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03352828652918752</v>
+        <v>0.03256058910366055</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1171344876774455</v>
+        <v>0.1143742470413669</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -7681,19 +7681,19 @@
         <v>31805</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20636</v>
+        <v>20686</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47282</v>
+        <v>44930</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07399701247786623</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04801140874659278</v>
+        <v>0.04812735352687132</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.11000703445093</v>
+        <v>0.1045354075523357</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>181029</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>168349</v>
+        <v>168009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191919</v>
+        <v>192172</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8570593084283292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7970280694114562</v>
+        <v>0.7954164931023318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9086147930850131</v>
+        <v>0.9098170164753321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>198</v>
@@ -7731,19 +7731,19 @@
         <v>188486</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176631</v>
+        <v>176084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198635</v>
+        <v>198327</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8622928628205931</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.808058058151929</v>
+        <v>0.8055535238739331</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9087247294713058</v>
+        <v>0.9073130321769375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>389</v>
@@ -7752,19 +7752,19 @@
         <v>369515</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>352273</v>
+        <v>351452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>384266</v>
+        <v>383687</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8597209316614386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8196048101051485</v>
+        <v>0.8176942597653912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8940411890862699</v>
+        <v>0.8926946906285652</v>
       </c>
     </row>
     <row r="23">
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9462</v>
+        <v>8935</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01032087303373479</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03596035517178982</v>
+        <v>0.03395622174409509</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7877,19 +7877,19 @@
         <v>7671</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3155</v>
+        <v>3324</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14793</v>
+        <v>15443</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02808633122881489</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01155177057509705</v>
+        <v>0.01216981960772894</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05416357101062366</v>
+        <v>0.05654509716776964</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -7898,19 +7898,19 @@
         <v>10386</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5293</v>
+        <v>5305</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20833</v>
+        <v>19531</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01936911863765723</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0098707314493943</v>
+        <v>0.009892299848030464</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03884937235110736</v>
+        <v>0.03642244860484393</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>29692</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18370</v>
+        <v>18778</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44849</v>
+        <v>45085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1128430849172851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06981519377250928</v>
+        <v>0.07136696053914918</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.170449867167329</v>
+        <v>0.171346492816405</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -7948,19 +7948,19 @@
         <v>24556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14117</v>
+        <v>14508</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37150</v>
+        <v>39872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08990990050177378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05168987583659775</v>
+        <v>0.05312185246492566</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1360249884967407</v>
+        <v>0.1459915706497185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -7969,19 +7969,19 @@
         <v>54247</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39477</v>
+        <v>39196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74233</v>
+        <v>74054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1011628297393433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0736189433377092</v>
+        <v>0.07309369359839181</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1384330559944973</v>
+        <v>0.1380995292021929</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>230716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>216074</v>
+        <v>216450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>243019</v>
+        <v>241652</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.87683604204898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8211915393975934</v>
+        <v>0.8226202509481889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.923596488116547</v>
+        <v>0.9184006323437054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>241</v>
@@ -8019,19 +8019,19 @@
         <v>240888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>227915</v>
+        <v>226585</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>252085</v>
+        <v>252072</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8820037682694113</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8345004619456043</v>
+        <v>0.8296337116418629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9229981365452161</v>
+        <v>0.9229511349995613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>480</v>
@@ -8040,19 +8040,19 @@
         <v>471604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>451327</v>
+        <v>450425</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>487859</v>
+        <v>487753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8794680516229995</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8416548979332261</v>
+        <v>0.8399717647857194</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9097803950528572</v>
+        <v>0.9095829872983807</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>24764</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14677</v>
+        <v>14492</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37967</v>
+        <v>38284</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03771838991157705</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02235477970005813</v>
+        <v>0.02207305247329316</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05782704085153891</v>
+        <v>0.05831022644134091</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -8165,19 +8165,19 @@
         <v>52861</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40186</v>
+        <v>38864</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70719</v>
+        <v>67194</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07646670675809779</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05813101515873042</v>
+        <v>0.05621908570270041</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1022999708091007</v>
+        <v>0.09720057488848984</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>63</v>
@@ -8186,19 +8186,19 @@
         <v>77625</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59684</v>
+        <v>60913</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>97654</v>
+        <v>97348</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05759184709617319</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04428070334978092</v>
+        <v>0.04519253577234635</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07245142457643101</v>
+        <v>0.07222430613890016</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>69120</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50239</v>
+        <v>51347</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>91086</v>
+        <v>91455</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1052768981174119</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07651829418029088</v>
+        <v>0.07820566702720536</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.138732447993079</v>
+        <v>0.1392940280930348</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -8236,19 +8236,19 @@
         <v>60412</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>43261</v>
+        <v>41605</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78222</v>
+        <v>81023</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08739013791743844</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06257911022063269</v>
+        <v>0.06018449089460371</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1131528269073091</v>
+        <v>0.1172052868843068</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -8257,19 +8257,19 @@
         <v>129533</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>101604</v>
+        <v>104858</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>159077</v>
+        <v>161086</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09610303478772694</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07538232999247892</v>
+        <v>0.07779624669783446</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1180225874159568</v>
+        <v>0.119512921964325</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>562673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>540160</v>
+        <v>539500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>583702</v>
+        <v>583247</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.857004711971011</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8227149833996344</v>
+        <v>0.8217100153686769</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8890339927216163</v>
+        <v>0.888340608982831</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>564</v>
@@ -8307,19 +8307,19 @@
         <v>578021</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>556187</v>
+        <v>554542</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>599218</v>
+        <v>598881</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8361431553244638</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.804558961938161</v>
+        <v>0.8021801626218493</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8668069200876257</v>
+        <v>0.8663192583603379</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1089</v>
@@ -8328,19 +8328,19 @@
         <v>1140694</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1107102</v>
+        <v>1108008</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1170547</v>
+        <v>1171324</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8463051181160999</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8213822033638344</v>
+        <v>0.8220546949117125</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8684535943566719</v>
+        <v>0.8690303263575286</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>45889</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32600</v>
+        <v>31327</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61613</v>
+        <v>62085</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05893944052288622</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04187148814487406</v>
+        <v>0.04023624023304436</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07913480825372653</v>
+        <v>0.0797404208013707</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -8453,19 +8453,19 @@
         <v>37644</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26316</v>
+        <v>25962</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50201</v>
+        <v>50647</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04556412340289306</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03185305559381856</v>
+        <v>0.03142429083110622</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06076367307209031</v>
+        <v>0.06130368750859673</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>68</v>
@@ -8474,19 +8474,19 @@
         <v>83533</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65186</v>
+        <v>64958</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>104342</v>
+        <v>106222</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05205347968531712</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04062053981347229</v>
+        <v>0.04047876485874793</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06502086629269294</v>
+        <v>0.06619209536042103</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>62922</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>46821</v>
+        <v>45625</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>84369</v>
+        <v>83401</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08081550770529941</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06013617149586951</v>
+        <v>0.05859997206088836</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1083622101949918</v>
+        <v>0.1071183293541245</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>39</v>
@@ -8524,19 +8524,19 @@
         <v>68340</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>50830</v>
+        <v>51816</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>92890</v>
+        <v>89547</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08271970240056215</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06152552093770132</v>
+        <v>0.06271901741585087</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1124349394021679</v>
+        <v>0.1083882538793428</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>77</v>
@@ -8545,19 +8545,19 @@
         <v>131262</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>105452</v>
+        <v>105498</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>162836</v>
+        <v>160522</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0817958366187041</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06571224005807372</v>
+        <v>0.06574097660839395</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1014715420611862</v>
+        <v>0.1000291910579307</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>669772</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>644434</v>
+        <v>646361</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>690716</v>
+        <v>692639</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8602450517718144</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8277015718346786</v>
+        <v>0.8301765195577975</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8871445086401364</v>
+        <v>0.8896150933825608</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>683</v>
@@ -8595,19 +8595,19 @@
         <v>720183</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>696497</v>
+        <v>697716</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>740218</v>
+        <v>741787</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8717161741965448</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.843046673638893</v>
+        <v>0.8445219107187744</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8959666059392445</v>
+        <v>0.8978655784937642</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1360</v>
@@ -8616,19 +8616,19 @@
         <v>1389955</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1358324</v>
+        <v>1357157</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1423037</v>
+        <v>1420863</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8661506836959788</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8464396873895806</v>
+        <v>0.8457122739181517</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8867657066380893</v>
+        <v>0.8854106299372116</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>208635</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>178565</v>
+        <v>176523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>242952</v>
+        <v>240151</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06146537622500136</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05260646658767695</v>
+        <v>0.05200500269044089</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07157546518609487</v>
+        <v>0.07075034398245002</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>212</v>
@@ -8741,19 +8741,19 @@
         <v>231488</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>203737</v>
+        <v>203835</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>263514</v>
+        <v>262465</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0653082960503657</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05747910497053656</v>
+        <v>0.05750685240403976</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07434366286041492</v>
+        <v>0.07404760048396845</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>370</v>
@@ -8762,19 +8762,19 @@
         <v>440123</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>397845</v>
+        <v>398053</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>482878</v>
+        <v>487293</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06342842605491429</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05733547160285182</v>
+        <v>0.0573655495116546</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06959010244276442</v>
+        <v>0.07022629261066635</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>315746</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>273226</v>
+        <v>272610</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>359419</v>
+        <v>359120</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09302104998909676</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08049440411220621</v>
+        <v>0.08031273968430665</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1058875571727495</v>
+        <v>0.1057992295919533</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>194</v>
@@ -8812,19 +8812,19 @@
         <v>326105</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>286277</v>
+        <v>285641</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>372109</v>
+        <v>371115</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09200201250676818</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08076556837150173</v>
+        <v>0.08058601136875004</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.104980836320967</v>
+        <v>0.104700407849392</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>381</v>
@@ -8833,19 +8833,19 @@
         <v>641851</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>583643</v>
+        <v>585073</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>708964</v>
+        <v>708932</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09250050273667773</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08411182601497796</v>
+        <v>0.08431797938253496</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1021725725148624</v>
+        <v>0.1021679646588065</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>2869969</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2818431</v>
+        <v>2818182</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2920155</v>
+        <v>2922507</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8455135737859019</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8303301418614731</v>
+        <v>0.830256604880554</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.860298769797828</v>
+        <v>0.8609915654461501</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2932</v>
@@ -8883,19 +8883,19 @@
         <v>2986949</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2935117</v>
+        <v>2939249</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3034111</v>
+        <v>3035673</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8426896914428661</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8280667082833578</v>
+        <v>0.8292324728291188</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8559952701224488</v>
+        <v>0.8564359695897964</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5817</v>
@@ -8904,19 +8904,19 @@
         <v>5856918</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5778652</v>
+        <v>5784037</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5924705</v>
+        <v>5932574</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.844071071208408</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8327918013745585</v>
+        <v>0.833567770491207</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8538402014453702</v>
+        <v>0.8549741825322159</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>62526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48220</v>
+        <v>48544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79370</v>
+        <v>77878</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1961005518931533</v>
+        <v>0.1961005518931534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1512337358586742</v>
+        <v>0.1522508265702473</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2489284280100596</v>
+        <v>0.2442491636067954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -9273,19 +9273,19 @@
         <v>53299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40595</v>
+        <v>42284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67195</v>
+        <v>68746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1686355088187965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1284391032968459</v>
+        <v>0.1337836588517286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2126001432356389</v>
+        <v>0.2175071357993604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -9294,19 +9294,19 @@
         <v>115825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95450</v>
+        <v>96444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136336</v>
+        <v>139191</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1824282599136088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1503371632612767</v>
+        <v>0.151902589636244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2147346409447129</v>
+        <v>0.2192306041104538</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>25978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17668</v>
+        <v>17627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38228</v>
+        <v>38218</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08147594479738096</v>
+        <v>0.08147594479738098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05541365068844817</v>
+        <v>0.05528292467603111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1198948274853076</v>
+        <v>0.1198633458513849</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -9344,19 +9344,19 @@
         <v>24237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18317</v>
+        <v>18218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33293</v>
+        <v>33493</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07668598522035446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05795336786561665</v>
+        <v>0.0576413096870828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1053362948866845</v>
+        <v>0.1059706235124599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -9365,19 +9365,19 @@
         <v>50216</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39080</v>
+        <v>38997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62807</v>
+        <v>64343</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07909146916666668</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06155312817816656</v>
+        <v>0.0614213988810147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09892262605697602</v>
+        <v>0.1013421897171443</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>230341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>213429</v>
+        <v>212158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>246493</v>
+        <v>245711</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7224235033094656</v>
+        <v>0.7224235033094658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6693803243237594</v>
+        <v>0.6653949062344373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7730819057795899</v>
+        <v>0.770629725603317</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>423</v>
@@ -9415,19 +9415,19 @@
         <v>238524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223658</v>
+        <v>224302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251879</v>
+        <v>251004</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7546785059608492</v>
+        <v>0.7546785059608491</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7076426892706091</v>
+        <v>0.7096779379761852</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7969319738742174</v>
+        <v>0.7941624692640296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>665</v>
@@ -9436,19 +9436,19 @@
         <v>468866</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>444426</v>
+        <v>446577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>491069</v>
+        <v>489948</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7384802709197246</v>
+        <v>0.7384802709197247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6999877181589065</v>
+        <v>0.7033750516393361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.773451350309984</v>
+        <v>0.7716853906993582</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>24928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15031</v>
+        <v>15685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37201</v>
+        <v>38288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04697742059956669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02832576239036855</v>
+        <v>0.02955799223065394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07010481904834218</v>
+        <v>0.07215398273003097</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -9561,19 +9561,19 @@
         <v>35474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26511</v>
+        <v>25552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50817</v>
+        <v>49195</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06507057345480323</v>
+        <v>0.06507057345480322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04862912545069721</v>
+        <v>0.04687020853928243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0932152586282355</v>
+        <v>0.09024007551308215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -9582,19 +9582,19 @@
         <v>60402</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46600</v>
+        <v>45528</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>78956</v>
+        <v>77050</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05614604973998526</v>
+        <v>0.05614604973998525</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04331617413916524</v>
+        <v>0.04231963072678192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07339185710386727</v>
+        <v>0.07162097217382232</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>32297</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19884</v>
+        <v>19217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48287</v>
+        <v>47504</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06086422807076411</v>
+        <v>0.06086422807076412</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03747096036326408</v>
+        <v>0.03621459335188695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09099713656619648</v>
+        <v>0.08952056292052481</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -9632,19 +9632,19 @@
         <v>23971</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16982</v>
+        <v>17440</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32522</v>
+        <v>32971</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0439698529698634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03114987891002637</v>
+        <v>0.03199100263273158</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0596549952100254</v>
+        <v>0.06047897824386605</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -9653,19 +9653,19 @@
         <v>56268</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42320</v>
+        <v>41423</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74578</v>
+        <v>75860</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05230307451733857</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03933770854925905</v>
+        <v>0.03850414399667684</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0693231894900613</v>
+        <v>0.07051489935711287</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>473421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>453419</v>
+        <v>455168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>488853</v>
+        <v>489847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8921583513296691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8544635423262119</v>
+        <v>0.8577612378975416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9212395721381827</v>
+        <v>0.9231128029574677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>638</v>
@@ -9703,19 +9703,19 @@
         <v>485716</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>470779</v>
+        <v>471244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>497925</v>
+        <v>498608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8909595735753334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.863558957998493</v>
+        <v>0.8644131857250428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.913353662324349</v>
+        <v>0.9146066472666236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>977</v>
@@ -9724,19 +9724,19 @@
         <v>959138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>935186</v>
+        <v>935242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>980886</v>
+        <v>978692</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8915508757426762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8692875234876137</v>
+        <v>0.8693391707669597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9117665566202757</v>
+        <v>0.9097275075639312</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>13515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7163</v>
+        <v>6436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22720</v>
+        <v>23193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04276941923845787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02266715024474356</v>
+        <v>0.02036709957703762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07190055660315495</v>
+        <v>0.07339749616304232</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -9849,19 +9849,19 @@
         <v>11249</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6783</v>
+        <v>6152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17918</v>
+        <v>18771</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03161492736787426</v>
+        <v>0.03161492736787427</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0190636058903238</v>
+        <v>0.01729002632540434</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05035883892559954</v>
+        <v>0.0527556454087928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -9870,19 +9870,19 @@
         <v>24764</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16188</v>
+        <v>16886</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35799</v>
+        <v>35610</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0368616245918989</v>
+        <v>0.03686162459189891</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02409704202603536</v>
+        <v>0.02513524878212334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05328774392943893</v>
+        <v>0.05300680785894517</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>6354</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2446</v>
+        <v>2714</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13302</v>
+        <v>14461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02010851353277505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007741034672149106</v>
+        <v>0.008587970868405121</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04209654220889138</v>
+        <v>0.04576249523030106</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -9920,19 +9920,19 @@
         <v>13455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8470</v>
+        <v>8339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20358</v>
+        <v>20450</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03781486160034317</v>
+        <v>0.03781486160034318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02380361475708887</v>
+        <v>0.02343748159360604</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05721680289706128</v>
+        <v>0.05747482022926274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -9941,19 +9941,19 @@
         <v>19809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13175</v>
+        <v>12588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29686</v>
+        <v>28758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02948639192807443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01961144465365487</v>
+        <v>0.01873768543804333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04418858249061225</v>
+        <v>0.04280668166462884</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>296124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>285096</v>
+        <v>284045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303504</v>
+        <v>304950</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.937122067228767</v>
+        <v>0.9371220672287672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9022223984765939</v>
+        <v>0.8988954606124073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9604759984354483</v>
+        <v>0.9650530732413443</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>500</v>
@@ -9991,19 +9991,19 @@
         <v>331105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321937</v>
+        <v>321242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338225</v>
+        <v>338855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9305702110317826</v>
+        <v>0.9305702110317828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9048035476514897</v>
+        <v>0.9028495297871995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9505793044377346</v>
+        <v>0.9523494816972389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>842</v>
@@ -10012,19 +10012,19 @@
         <v>627230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>614689</v>
+        <v>615025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>639210</v>
+        <v>638602</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9336519834800266</v>
+        <v>0.9336519834800268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9149842735487769</v>
+        <v>0.9154847290278451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9514844709769842</v>
+        <v>0.9505793533656817</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>45120</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30242</v>
+        <v>29872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64791</v>
+        <v>63886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1209170028693776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08104629088582174</v>
+        <v>0.08005492411056278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1736337076972748</v>
+        <v>0.1712104945180074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -10137,19 +10137,19 @@
         <v>28965</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19339</v>
+        <v>20191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40278</v>
+        <v>41914</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06909917291122931</v>
+        <v>0.06909917291122929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04613538429457627</v>
+        <v>0.0481670835956497</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09608682191057795</v>
+        <v>0.09999038386925542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -10158,19 +10158,19 @@
         <v>74085</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56225</v>
+        <v>55418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97794</v>
+        <v>95359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09350263007965942</v>
+        <v>0.09350263007965939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0709618128657301</v>
+        <v>0.06994324520960826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1234260861267443</v>
+        <v>0.1203522993471127</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>25562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16057</v>
+        <v>16768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37502</v>
+        <v>37478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06850372176152995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04303243308591172</v>
+        <v>0.04493647815470595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1005025252322773</v>
+        <v>0.1004389121711669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -10208,19 +10208,19 @@
         <v>26830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18986</v>
+        <v>18638</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38911</v>
+        <v>37896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06400642477011019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04529235454899869</v>
+        <v>0.04446266249819312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0928254136047847</v>
+        <v>0.09040419969877629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -10229,19 +10229,19 @@
         <v>52392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39658</v>
+        <v>39984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68303</v>
+        <v>67142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.066124413782627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05005192553208327</v>
+        <v>0.05046378235914726</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08620538244880435</v>
+        <v>0.08474058575500042</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>302464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>280980</v>
+        <v>281124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>320191</v>
+        <v>319868</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8105792753690926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7530052360457129</v>
+        <v>0.7533898747785155</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8580865498758621</v>
+        <v>0.8572220794377807</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>518</v>
@@ -10279,19 +10279,19 @@
         <v>363388</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>348151</v>
+        <v>347769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>375350</v>
+        <v>375821</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8668944023186604</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.830544173753336</v>
+        <v>0.8296335373699574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8954300829062074</v>
+        <v>0.8965529019578625</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>756</v>
@@ -10300,19 +10300,19 @@
         <v>665852</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>639529</v>
+        <v>640332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>686932</v>
+        <v>688454</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8403729561377136</v>
+        <v>0.8403729561377137</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8071511610991092</v>
+        <v>0.8081643950195411</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8669787783364519</v>
+        <v>0.868899055625081</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>18154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11653</v>
+        <v>11474</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28008</v>
+        <v>27710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08827168843918194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05666097330274859</v>
+        <v>0.05578780738968205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1361805599590809</v>
+        <v>0.1347353819385644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -10425,19 +10425,19 @@
         <v>11132</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7329</v>
+        <v>7378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16864</v>
+        <v>17692</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04926459071310842</v>
+        <v>0.04926459071310843</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03243487888316417</v>
+        <v>0.03265427255485927</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07463413573046611</v>
+        <v>0.07829726642499248</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -10446,19 +10446,19 @@
         <v>29286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21258</v>
+        <v>20982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39722</v>
+        <v>39588</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0678513097288808</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04925156760142937</v>
+        <v>0.0486129612009876</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09203038517649828</v>
+        <v>0.09171984851162113</v>
       </c>
     </row>
     <row r="21">
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5367</v>
+        <v>5344</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007334349522600217</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02609442186674392</v>
+        <v>0.02598542115379257</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -10496,19 +10496,19 @@
         <v>4474</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2198</v>
+        <v>1979</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8741</v>
+        <v>7998</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01979894416307716</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00972544044332223</v>
+        <v>0.008758273527807366</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03868337833698032</v>
+        <v>0.03539631677210977</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -10517,19 +10517,19 @@
         <v>5982</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3036</v>
+        <v>3097</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10781</v>
+        <v>10234</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01385961691922563</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007033481510673253</v>
+        <v>0.007176225454395326</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02497867067326459</v>
+        <v>0.023711533518124</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>186002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>176377</v>
+        <v>176513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>192823</v>
+        <v>193048</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9043939620382178</v>
+        <v>0.9043939620382179</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8575921529327066</v>
+        <v>0.8582544684117339</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9375605831095095</v>
+        <v>0.938651070355182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>458</v>
@@ -10567,19 +10567,19 @@
         <v>210349</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203760</v>
+        <v>203538</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>215095</v>
+        <v>215046</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9309364651238144</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9017765922721865</v>
+        <v>0.9007938680743635</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9519424052225306</v>
+        <v>0.951725219792285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>715</v>
@@ -10588,19 +10588,19 @@
         <v>396351</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>385188</v>
+        <v>385435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>405362</v>
+        <v>404925</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9182890733518935</v>
+        <v>0.9182890733518934</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8924260325263116</v>
+        <v>0.8929992234647929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9391665285973162</v>
+        <v>0.9381536671971666</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>12623</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7162</v>
+        <v>7210</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20946</v>
+        <v>21164</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0466314814725334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02645737334849266</v>
+        <v>0.02663218039294553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07737669263725477</v>
+        <v>0.07818176350384451</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -10713,19 +10713,19 @@
         <v>8116</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4747</v>
+        <v>4490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14042</v>
+        <v>13695</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03087040769031841</v>
+        <v>0.0308704076903184</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0180576292684148</v>
+        <v>0.01707838864997945</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05341194363210161</v>
+        <v>0.05209000800676448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -10734,19 +10734,19 @@
         <v>20739</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14436</v>
+        <v>14036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31130</v>
+        <v>29976</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03886622982538359</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02705378894498554</v>
+        <v>0.02630368124021025</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0583395409771254</v>
+        <v>0.0561769671703182</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>9091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5019</v>
+        <v>4779</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15363</v>
+        <v>15013</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03358269960151873</v>
+        <v>0.03358269960151872</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0185387478977742</v>
+        <v>0.01765331165056231</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05675127472545431</v>
+        <v>0.05546002772792459</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -10784,19 +10784,19 @@
         <v>9624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5507</v>
+        <v>5785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15395</v>
+        <v>15266</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03660619929533028</v>
+        <v>0.03660619929533027</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02094675212075124</v>
+        <v>0.02200554999452427</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05855860446791371</v>
+        <v>0.05806887992068964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -10805,19 +10805,19 @@
         <v>18715</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12872</v>
+        <v>12685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27239</v>
+        <v>27614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03507233389306175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02412189537913779</v>
+        <v>0.0237712740265091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05104721786379086</v>
+        <v>0.05175020278335354</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>248992</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239734</v>
+        <v>239437</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>255907</v>
+        <v>256089</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9197858189259479</v>
+        <v>0.9197858189259478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8855859523649382</v>
+        <v>0.8844861157717763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.945329576814488</v>
+        <v>0.9460003277623285</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>430</v>
@@ -10855,19 +10855,19 @@
         <v>245161</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>237939</v>
+        <v>237052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>250870</v>
+        <v>250988</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9325233930143514</v>
+        <v>0.9325233930143512</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9050503607744588</v>
+        <v>0.9016763139332902</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9542390762196017</v>
+        <v>0.9546871207156717</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>774</v>
@@ -10876,19 +10876,19 @@
         <v>494154</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>482564</v>
+        <v>483610</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>503379</v>
+        <v>503593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9260614362815546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9043416072791148</v>
+        <v>0.9063025636905835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9433506500280741</v>
+        <v>0.9437514414141859</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>82904</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64355</v>
+        <v>63039</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>106283</v>
+        <v>105848</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1153841007769206</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08956845075759819</v>
+        <v>0.08773635183004701</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1479223828033131</v>
+        <v>0.1473169588773885</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>134</v>
@@ -11001,19 +11001,19 @@
         <v>110421</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>92474</v>
+        <v>93199</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>130076</v>
+        <v>130198</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.143402010199453</v>
+        <v>0.1434020101994529</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1200939940498781</v>
+        <v>0.1210364616980064</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1689270009901276</v>
+        <v>0.1690853558816103</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>196</v>
@@ -11022,19 +11022,19 @@
         <v>193325</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>165731</v>
+        <v>166239</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>223419</v>
+        <v>223288</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1298777963975014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1113400824673019</v>
+        <v>0.1116807541998767</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1500950097552438</v>
+        <v>0.150006929836273</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>66205</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50054</v>
+        <v>50283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85211</v>
+        <v>86395</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0921426531133499</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06966403504567238</v>
+        <v>0.0699823558815291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1185954683976146</v>
+        <v>0.1202422148196906</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -11072,19 +11072,19 @@
         <v>61701</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>49829</v>
+        <v>49403</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75828</v>
+        <v>75816</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08012993438980633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06471222105208703</v>
+        <v>0.06415908867729478</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09847629640684048</v>
+        <v>0.0984611323175334</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>140</v>
@@ -11093,19 +11093,19 @@
         <v>127906</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>105939</v>
+        <v>107899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>150731</v>
+        <v>151110</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08592846039365065</v>
+        <v>0.08592846039365067</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07117079406598131</v>
+        <v>0.07248785270549243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.101262882310603</v>
+        <v>0.1015173762870482</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>569396</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>541445</v>
+        <v>542827</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>592773</v>
+        <v>596569</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7924732461097296</v>
+        <v>0.7924732461097297</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7535715798210042</v>
+        <v>0.7554955986943614</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8250093564961455</v>
+        <v>0.8302920858057166</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>741</v>
@@ -11143,19 +11143,19 @@
         <v>597889</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>576358</v>
+        <v>575700</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>617892</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7764680554107408</v>
+        <v>0.7764680554107407</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7485065006369235</v>
+        <v>0.7476512456295492</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8024459887401431</v>
+        <v>0.8024458707719392</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1219</v>
@@ -11164,19 +11164,19 @@
         <v>1167285</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1128572</v>
+        <v>1133611</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1197169</v>
+        <v>1201694</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7841937432088478</v>
+        <v>0.784193743208848</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7581857279739419</v>
+        <v>0.7615711944342108</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.804270025013558</v>
+        <v>0.8073103243609493</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>38374</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24744</v>
+        <v>25771</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53664</v>
+        <v>52817</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04815209372290739</v>
+        <v>0.04815209372290738</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03104906473715472</v>
+        <v>0.03233780644569668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06733798871947101</v>
+        <v>0.06627548380663406</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -11289,19 +11289,19 @@
         <v>36256</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25770</v>
+        <v>25811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49057</v>
+        <v>49452</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04369003507229396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03105338626951157</v>
+        <v>0.03110274094352502</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0591147764913574</v>
+        <v>0.05959166634322096</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -11310,19 +11310,19 @@
         <v>74630</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58572</v>
+        <v>58690</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>94528</v>
+        <v>93049</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04587591457059493</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03600466952152141</v>
+        <v>0.03607747468008167</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05810739414779918</v>
+        <v>0.05719818141124024</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>13625</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7632</v>
+        <v>7798</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22554</v>
+        <v>22248</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01709646836884502</v>
+        <v>0.01709646836884501</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00957703282198236</v>
+        <v>0.009785032133263153</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02830157572019507</v>
+        <v>0.02791663339024728</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>13</v>
@@ -11360,19 +11360,19 @@
         <v>11471</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>5960</v>
+        <v>6256</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>19821</v>
+        <v>20316</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01382319224630759</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00718206595865071</v>
+        <v>0.007538530952610618</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02388549087677901</v>
+        <v>0.02448120057627084</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>27</v>
@@ -11381,19 +11381,19 @@
         <v>25096</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>16608</v>
+        <v>17117</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>35783</v>
+        <v>37053</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01542670930620751</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01020901696288496</v>
+        <v>0.01052190994034813</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02199631712475933</v>
+        <v>0.02277713891362773</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>744932</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>728371</v>
+        <v>727907</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>759642</v>
+        <v>758097</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9347514379082478</v>
+        <v>0.9347514379082476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9139704603013094</v>
+        <v>0.9133875506360264</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9532090591880181</v>
+        <v>0.9512706664343746</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1009</v>
@@ -11431,19 +11431,19 @@
         <v>782125</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>767614</v>
+        <v>768418</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>794084</v>
+        <v>794241</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9424867726813985</v>
+        <v>0.9424867726813984</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9249994114604211</v>
+        <v>0.9259693306520721</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9568968838463443</v>
+        <v>0.9570861263439026</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1725</v>
@@ -11452,19 +11452,19 @@
         <v>1527058</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1506220</v>
+        <v>1508249</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1546553</v>
+        <v>1546758</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9386973761231975</v>
+        <v>0.9386973761231976</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9258883590802639</v>
+        <v>0.9271352715109568</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9506811054828032</v>
+        <v>0.9508069712356398</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>298144</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>260752</v>
+        <v>259422</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336901</v>
+        <v>340875</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.084449681598739</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07385815589761723</v>
+        <v>0.07348164951486247</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0954274048436792</v>
+        <v>0.09655324459496323</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>370</v>
@@ -11577,19 +11577,19 @@
         <v>294912</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>264579</v>
+        <v>266163</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>328450</v>
+        <v>328831</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07917239905730378</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0710292513668261</v>
+        <v>0.07145439944339631</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08817607678706811</v>
+        <v>0.08827838783823136</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>617</v>
@@ -11598,19 +11598,19 @@
         <v>593056</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>543001</v>
+        <v>546157</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>646550</v>
+        <v>641101</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.08174030595764763</v>
+        <v>0.08174030595764765</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07484122277865062</v>
+        <v>0.07527619516409424</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08911333529753702</v>
+        <v>0.08836221359041679</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>180621</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>156349</v>
+        <v>153159</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>214113</v>
+        <v>208972</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05116100220383606</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0442859100870692</v>
+        <v>0.04338230254636698</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06064764265330317</v>
+        <v>0.0591915487766498</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>261</v>
@@ -11648,19 +11648,19 @@
         <v>175763</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154268</v>
+        <v>154383</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>199160</v>
+        <v>200021</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04718554101116893</v>
+        <v>0.04718554101116892</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04141489500045614</v>
+        <v>0.04144576567023406</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0534667377085674</v>
+        <v>0.05369784878692803</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>432</v>
@@ -11669,19 +11669,19 @@
         <v>356384</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>319861</v>
+        <v>320033</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>394377</v>
+        <v>394543</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04911998627699371</v>
+        <v>0.04911998627699373</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04408602274841918</v>
+        <v>0.04410982071330258</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05435649410809792</v>
+        <v>0.05437937272034917</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>3051674</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2999446</v>
+        <v>3006683</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3092343</v>
+        <v>3099651</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8643893161974251</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8495957993274549</v>
+        <v>0.8516457399943007</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8759087990407076</v>
+        <v>0.8779788571428042</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4717</v>
@@ -11719,19 +11719,19 @@
         <v>3254260</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3217656</v>
+        <v>3214097</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3290464</v>
+        <v>3287267</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.8736420599315273</v>
+        <v>0.8736420599315272</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8638153877592721</v>
+        <v>0.8628598719450427</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8833615258601194</v>
+        <v>0.8825030915490736</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7673</v>
@@ -11740,19 +11740,19 @@
         <v>6305933</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6243540</v>
+        <v>6248097</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6358956</v>
+        <v>6359983</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8691397077653585</v>
+        <v>0.8691397077653586</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8605401772299942</v>
+        <v>0.8611683069835973</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8764478731100651</v>
+        <v>0.8765894324259029</v>
       </c>
     </row>
     <row r="39">
